--- a/Checklists/Mobile_App_Security_Checklist-Korean_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Korean_1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B5B7E-81C2-6C4A-8AD6-DF44971E2164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA7297-59A4-C745-A10C-91B79D613471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="418">
   <si>
     <t>1.1.4</t>
   </si>
@@ -1609,6 +1609,9 @@
   </si>
   <si>
     <t>Testing Obfuscation (MSTG-RESILIENCE-9)</t>
+  </si>
+  <si>
+    <t>1.1.3-excel</t>
   </si>
 </sst>
 </file>
@@ -2658,82 +2661,82 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2741,49 +2744,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -4063,7 +4024,7 @@
   <dimension ref="B1:E44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4078,46 +4039,46 @@
   <sheetData>
     <row r="1" spans="2:5" ht="8" customHeight="1"/>
     <row r="2" spans="2:5" ht="15.5" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="148" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
     </row>
     <row r="8" spans="2:5" hidden="1">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5">
@@ -4128,102 +4089,102 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="140"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="130">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="32" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-masvs/blob/", MASVS_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.2/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="33">
-        <v>1.2</v>
+      <c r="C13" s="150"/>
+      <c r="D13" s="33" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="17">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="141"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="34" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-mstg/blob/", MSTG_VERSION, "/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="32" customHeight="1">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="33" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="141"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="33"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="142" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="33"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="142" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="144"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="33"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="144"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="144"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="33" t="str">
         <f>"앱 " &amp; D25 &amp; " 내에서 사용 가능한 모든 기능"</f>
         <v>앱 &lt;AppName&gt; 내에서 사용 가능한 모든 기능</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="70.5" customHeight="1">
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="144"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="33" t="str">
         <f>D16&amp;"(와)과 협의 후 "&amp;D25&amp;"에 대한 검증 수준은 Level 1 요구사항만 적용하기로 결정" &amp;
 "
@@ -4237,9 +4198,9 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5">
@@ -4259,46 +4220,46 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="144"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="142" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="144"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="142" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="144"/>
+      <c r="C28" s="142"/>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="142" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="144"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="2:5" ht="52" customHeight="1">
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="145"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="33" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5">
@@ -4309,87 +4270,113 @@
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="140" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="147"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="147" t="s">
+      <c r="B35" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="147"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="35"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="147" t="s">
+      <c r="B36" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="147"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="35"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="147"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="147"/>
+      <c r="C38" s="140"/>
       <c r="D38" s="35"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="140" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="147"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="35"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="147"/>
+      <c r="C41" s="140"/>
       <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="147"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="35"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="147" t="s">
+      <c r="B43" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="147" t="s">
+      <c r="B44" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="147"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B38:C38"/>
@@ -4397,32 +4384,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4565,11 +4526,11 @@
       <c r="D5" s="121"/>
       <c r="E5" s="121"/>
       <c r="F5" s="121"/>
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="152" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
@@ -4581,11 +4542,11 @@
       <c r="R5" s="61"/>
       <c r="S5" s="61"/>
       <c r="T5" s="61"/>
-      <c r="U5" s="149" t="s">
+      <c r="U5" s="152" t="s">
         <v>255</v>
       </c>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152"/>
       <c r="X5" s="61"/>
       <c r="Y5" s="61"/>
       <c r="Z5" s="37"/>
@@ -5622,12 +5583,12 @@
       <c r="D7" s="120"/>
       <c r="E7" s="120"/>
       <c r="F7" s="120"/>
-      <c r="G7" s="150">
+      <c r="G7" s="153">
         <f>AVERAGE(G42:G49)*5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
@@ -5639,12 +5600,12 @@
       <c r="R7" s="52"/>
       <c r="S7" s="52"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="150">
+      <c r="U7" s="153">
         <f>AVERAGE(K42:K49)*5</f>
         <v>0</v>
       </c>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="153"/>
       <c r="X7" s="52"/>
       <c r="Y7" s="52"/>
     </row>
@@ -5655,9 +5616,9 @@
       <c r="D8" s="123"/>
       <c r="E8" s="123"/>
       <c r="F8" s="123"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
@@ -5669,9 +5630,9 @@
       <c r="R8" s="52"/>
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
       <c r="X8" s="52"/>
       <c r="Y8" s="52"/>
     </row>
@@ -5682,9 +5643,9 @@
       <c r="D9" s="122"/>
       <c r="E9" s="122"/>
       <c r="F9" s="122"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
@@ -5696,9 +5657,9 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
       <c r="X9" s="52"/>
       <c r="Y9" s="52"/>
     </row>
@@ -5709,9 +5670,9 @@
       <c r="D10" s="122"/>
       <c r="E10" s="122"/>
       <c r="F10" s="122"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
@@ -5723,18 +5684,18 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
       <c r="X10" s="52"/>
       <c r="Y10" s="52"/>
     </row>
     <row r="11" spans="1:1024" ht="16" customHeight="1">
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
     </row>
     <row r="12" spans="1:1024">
       <c r="B12" s="3"/>
@@ -5758,11 +5719,11 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:1024" ht="16" customHeight="1">
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
     </row>
     <row r="16" spans="1:1024">
       <c r="B16" s="3"/>
@@ -5816,18 +5777,18 @@
     <row r="34" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="3:11">
       <c r="C40" s="52"/>
-      <c r="D40" s="148" t="s">
+      <c r="D40" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148" t="s">
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
     </row>
     <row r="41" spans="3:11">
       <c r="C41" s="52"/>
@@ -6211,7 +6172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6225,7 +6186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6257,18 +6218,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="155" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="80" t="s">
@@ -6289,11 +6250,11 @@
       <c r="G3" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="156" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="81" t="s">
         <v>266</v>
       </c>
@@ -8423,15 +8384,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="159" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="74"/>
@@ -8957,18 +8918,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="161" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="80" t="s">
@@ -8989,11 +8950,11 @@
       <c r="G3" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="160" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="81" t="s">
         <v>266</v>
       </c>
@@ -11140,22 +11101,22 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H28 H33:H1048576">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11196,15 +11157,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
     </row>
     <row r="2" spans="2:8">
       <c r="G2" s="125"/>
@@ -11333,7 +11294,7 @@
       <c r="F8" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="162" t="s">
+      <c r="G8" s="138" t="s">
         <v>414</v>
       </c>
       <c r="H8" s="92"/>
@@ -11355,7 +11316,7 @@
       <c r="F9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="138" t="s">
         <v>415</v>
       </c>
       <c r="H9" s="92"/>
@@ -11377,7 +11338,7 @@
       <c r="F10" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="161"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="92"/>
     </row>
     <row r="11" spans="2:8" ht="32">
@@ -11397,7 +11358,7 @@
       <c r="F11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="139" t="s">
         <v>166</v>
       </c>
       <c r="H11" s="92"/>
@@ -11419,7 +11380,7 @@
       <c r="F12" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="139" t="s">
         <v>166</v>
       </c>
       <c r="H12" s="92"/>
@@ -11441,7 +11402,7 @@
       <c r="F13" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="162" t="s">
+      <c r="G13" s="138" t="s">
         <v>416</v>
       </c>
       <c r="H13" s="92"/>
@@ -11769,10 +11730,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="9"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -12224,10 +12185,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="39"/>
       <c r="D1" s="42"/>
       <c r="E1" s="22"/>

--- a/Checklists/Mobile_App_Security_Checklist-Korean_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Korean_1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathis_hesse\Documents\Git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA7297-59A4-C745-A10C-91B79D613471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48232E58-C8B1-4830-8B45-74CFF8102E22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="418">
   <si>
     <t>1.1.4</t>
   </si>
@@ -2740,9 +2738,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -2888,7 +2886,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -2987,7 +2985,7 @@
                 <a:pPr>
                   <a:defRPr lang="ja-JP"/>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3119,7 +3117,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10768888"/>
@@ -3165,7 +3163,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57926455"/>
@@ -3205,7 +3203,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3231,7 +3229,7 @@
           <a:ea typeface="+mn-ea"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3245,7 +3243,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3344,7 +3342,7 @@
                 <a:pPr>
                   <a:defRPr lang="ja-JP"/>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3476,7 +3474,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96135864"/>
@@ -3522,7 +3520,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="44602735"/>
@@ -3562,7 +3560,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3588,7 +3586,7 @@
           <a:ea typeface="+mn-ea"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3725,7 +3723,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4027,18 +4025,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.296875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="22" customWidth="1"/>
     <col min="4" max="4" width="92.5" style="22" customWidth="1"/>
-    <col min="5" max="1025" width="8.83203125" style="22" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="22"/>
+    <col min="5" max="1025" width="8.796875" style="22" customWidth="1"/>
+    <col min="1026" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="8" customHeight="1"/>
-    <row r="2" spans="2:5" ht="15.5" customHeight="1">
+    <row r="1" spans="2:5" ht="7.95" customHeight="1"/>
+    <row r="2" spans="2:5" ht="15.45" customHeight="1">
       <c r="B2" s="148" t="s">
         <v>293</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17">
+    <row r="14" spans="2:5">
       <c r="B14" s="146" t="s">
         <v>250</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="32" customHeight="1">
+    <row r="15" spans="2:5" ht="31.95" customHeight="1">
       <c r="B15" s="147" t="s">
         <v>228</v>
       </c>
@@ -4247,7 +4245,7 @@
       <c r="C29" s="142"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="2:5" ht="52" customHeight="1">
+    <row r="30" spans="2:5" ht="52.05" customHeight="1">
       <c r="B30" s="143" t="s">
         <v>252</v>
       </c>
@@ -4398,15 +4396,15 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
-    <col min="4" max="11" width="7.83203125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="8.83203125" style="1" customWidth="1"/>
-    <col min="18" max="23" width="7.83203125" style="1" customWidth="1"/>
-    <col min="24" max="1024" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.796875" style="1" customWidth="1"/>
+    <col min="4" max="11" width="7.796875" style="1" customWidth="1"/>
+    <col min="12" max="17" width="8.796875" style="1" customWidth="1"/>
+    <col min="18" max="23" width="7.796875" style="1" customWidth="1"/>
+    <col min="24" max="1024" width="8.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -4436,7 +4434,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:1024" ht="19">
+    <row r="2" spans="1:1024" ht="18">
       <c r="A2" s="52"/>
       <c r="B2" s="118"/>
       <c r="C2" s="128" t="s">
@@ -4492,7 +4490,7 @@
       <c r="X3" s="52"/>
       <c r="Y3" s="52"/>
     </row>
-    <row r="4" spans="1:1024" ht="16" customHeight="1">
+    <row r="4" spans="1:1024" ht="16.05" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="120"/>
       <c r="C4" s="120"/>
@@ -4519,7 +4517,7 @@
       <c r="X4" s="52"/>
       <c r="Y4" s="52"/>
     </row>
-    <row r="5" spans="1:1024" s="38" customFormat="1" ht="19" customHeight="1">
+    <row r="5" spans="1:1024" s="38" customFormat="1" ht="19.05" customHeight="1">
       <c r="A5" s="61"/>
       <c r="B5" s="121"/>
       <c r="C5" s="121"/>
@@ -5576,7 +5574,7 @@
       <c r="X6" s="52"/>
       <c r="Y6" s="52"/>
     </row>
-    <row r="7" spans="1:1024" ht="16" customHeight="1">
+    <row r="7" spans="1:1024" ht="16.05" customHeight="1">
       <c r="A7" s="52"/>
       <c r="B7" s="120"/>
       <c r="C7" s="120"/>
@@ -5609,7 +5607,7 @@
       <c r="X7" s="52"/>
       <c r="Y7" s="52"/>
     </row>
-    <row r="8" spans="1:1024" ht="91" customHeight="1">
+    <row r="8" spans="1:1024" ht="91.05" customHeight="1">
       <c r="A8" s="52"/>
       <c r="B8" s="123"/>
       <c r="C8" s="123"/>
@@ -5690,7 +5688,7 @@
       <c r="X10" s="52"/>
       <c r="Y10" s="52"/>
     </row>
-    <row r="11" spans="1:1024" ht="16" customHeight="1">
+    <row r="11" spans="1:1024" ht="16.05" customHeight="1">
       <c r="B11" s="154"/>
       <c r="C11" s="154"/>
       <c r="D11" s="154"/>
@@ -5711,14 +5709,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="16.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:1024" ht="16" customHeight="1">
+    <row r="15" spans="1:1024" ht="16.05" customHeight="1">
       <c r="B15" s="154"/>
       <c r="C15" s="154"/>
       <c r="D15" s="154"/>
@@ -6200,24 +6198,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="64" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="71" customWidth="1"/>
-    <col min="8" max="10" width="40.83203125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="71" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="80.796875" style="64" customWidth="1"/>
+    <col min="5" max="7" width="8.296875" style="71" customWidth="1"/>
+    <col min="8" max="10" width="40.796875" style="72" customWidth="1"/>
+    <col min="11" max="11" width="20.796875" style="64" customWidth="1"/>
     <col min="12" max="12" width="11" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" style="71" customWidth="1"/>
     <col min="15" max="1025" width="11" style="71" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="72"/>
+    <col min="1026" max="16384" width="8.796875" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="155" t="s">
         <v>265</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="J4" s="83"/>
       <c r="K4" s="83"/>
     </row>
-    <row r="5" spans="2:11" ht="34">
+    <row r="5" spans="2:11" ht="31.2">
       <c r="B5" s="85" t="s">
         <v>15</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="J5" s="91"/>
       <c r="K5" s="92"/>
     </row>
-    <row r="6" spans="2:11" ht="34">
+    <row r="6" spans="2:11" ht="31.2">
       <c r="B6" s="85" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="J6" s="93"/>
       <c r="K6" s="92"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="85" t="s">
         <v>20</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="J7" s="91"/>
       <c r="K7" s="92"/>
     </row>
-    <row r="8" spans="2:11" ht="17">
+    <row r="8" spans="2:11">
       <c r="B8" s="85" t="s">
         <v>22</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="J8" s="91"/>
       <c r="K8" s="92"/>
     </row>
-    <row r="9" spans="2:11" ht="17">
+    <row r="9" spans="2:11">
       <c r="B9" s="85" t="s">
         <v>24</v>
       </c>
@@ -6406,7 +6406,7 @@
       <c r="J9" s="91"/>
       <c r="K9" s="92"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="85" t="s">
         <v>27</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="J10" s="91"/>
       <c r="K10" s="92"/>
     </row>
-    <row r="11" spans="2:11" ht="52" customHeight="1">
+    <row r="11" spans="2:11" ht="52.05" customHeight="1">
       <c r="B11" s="85" t="s">
         <v>29</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="K11" s="92"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="85" t="s">
         <v>31</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="J12" s="91"/>
       <c r="K12" s="92"/>
     </row>
-    <row r="13" spans="2:11" ht="35" customHeight="1">
+    <row r="13" spans="2:11" ht="34.950000000000003" customHeight="1">
       <c r="B13" s="85" t="s">
         <v>33</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="J13" s="91"/>
       <c r="K13" s="92"/>
     </row>
-    <row r="14" spans="2:11" ht="17">
+    <row r="14" spans="2:11">
       <c r="B14" s="85" t="s">
         <v>35</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="J17" s="97"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="2:11" ht="55" customHeight="1">
+    <row r="18" spans="2:11" ht="55.05" customHeight="1">
       <c r="B18" s="85" t="s">
         <v>38</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="J18" s="91"/>
       <c r="K18" s="92"/>
     </row>
-    <row r="19" spans="2:11" ht="55" customHeight="1">
+    <row r="19" spans="2:11" ht="55.05" customHeight="1">
       <c r="B19" s="85" t="s">
         <v>40</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="J19" s="91"/>
       <c r="K19" s="99"/>
     </row>
-    <row r="20" spans="2:11" ht="34">
+    <row r="20" spans="2:11" ht="31.2">
       <c r="B20" s="85" t="s">
         <v>42</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="J20" s="91"/>
       <c r="K20" s="92"/>
     </row>
-    <row r="21" spans="2:11" ht="34">
+    <row r="21" spans="2:11" ht="31.2">
       <c r="B21" s="85" t="s">
         <v>44</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="J21" s="91"/>
       <c r="K21" s="92"/>
     </row>
-    <row r="22" spans="2:11" ht="51">
+    <row r="22" spans="2:11" ht="46.8">
       <c r="B22" s="85" t="s">
         <v>46</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="J22" s="91"/>
       <c r="K22" s="92"/>
     </row>
-    <row r="23" spans="2:11" ht="51">
+    <row r="23" spans="2:11" ht="46.8">
       <c r="B23" s="85" t="s">
         <v>48</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="J23" s="91"/>
       <c r="K23" s="92"/>
     </row>
-    <row r="24" spans="2:11" ht="34">
+    <row r="24" spans="2:11" ht="31.2">
       <c r="B24" s="85" t="s">
         <v>50</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="J24" s="91"/>
       <c r="K24" s="92"/>
     </row>
-    <row r="25" spans="2:11" ht="34">
+    <row r="25" spans="2:11" ht="31.2">
       <c r="B25" s="85" t="s">
         <v>52</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="J25" s="91"/>
       <c r="K25" s="92"/>
     </row>
-    <row r="26" spans="2:11" ht="58" customHeight="1">
+    <row r="26" spans="2:11" ht="58.05" customHeight="1">
       <c r="B26" s="85" t="s">
         <v>54</v>
       </c>
@@ -6825,7 +6825,7 @@
       <c r="J26" s="91"/>
       <c r="K26" s="92"/>
     </row>
-    <row r="27" spans="2:11" ht="34">
+    <row r="27" spans="2:11" ht="31.2">
       <c r="B27" s="85" t="s">
         <v>56</v>
       </c>
@@ -6850,7 +6850,7 @@
       <c r="J27" s="91"/>
       <c r="K27" s="92"/>
     </row>
-    <row r="28" spans="2:11" ht="34">
+    <row r="28" spans="2:11" ht="31.2">
       <c r="B28" s="85" t="s">
         <v>58</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="J28" s="91"/>
       <c r="K28" s="92"/>
     </row>
-    <row r="29" spans="2:11" ht="32">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="85" t="s">
         <v>60</v>
       </c>
@@ -6903,7 +6903,7 @@
       <c r="J29" s="91"/>
       <c r="K29" s="92"/>
     </row>
-    <row r="30" spans="2:11" ht="32">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="85" t="s">
         <v>317</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="J30" s="91"/>
       <c r="K30" s="92"/>
     </row>
-    <row r="31" spans="2:11" ht="32">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="85" t="s">
         <v>319</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="J33" s="97"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="2:13" ht="34">
+    <row r="34" spans="2:13" ht="31.2">
       <c r="B34" s="85" t="s">
         <v>63</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="J34" s="91"/>
       <c r="K34" s="92"/>
     </row>
-    <row r="35" spans="2:13" ht="70" customHeight="1">
+    <row r="35" spans="2:13" ht="70.05" customHeight="1">
       <c r="B35" s="85" t="s">
         <v>65</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="J37" s="91"/>
       <c r="K37" s="92"/>
     </row>
-    <row r="38" spans="2:13" ht="55" customHeight="1">
+    <row r="38" spans="2:13" ht="55.05" customHeight="1">
       <c r="B38" s="85" t="s">
         <v>71</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="J38" s="91"/>
       <c r="K38" s="92"/>
     </row>
-    <row r="39" spans="2:13" ht="34">
+    <row r="39" spans="2:13" ht="31.2">
       <c r="B39" s="85" t="s">
         <v>73</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="J40" s="97"/>
       <c r="K40" s="96"/>
     </row>
-    <row r="41" spans="2:13" ht="34">
+    <row r="41" spans="2:13" ht="31.2">
       <c r="B41" s="85" t="s">
         <v>76</v>
       </c>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="K41" s="92"/>
     </row>
-    <row r="42" spans="2:13" ht="34">
+    <row r="42" spans="2:13" ht="31.2">
       <c r="B42" s="85" t="s">
         <v>78</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="J42" s="91"/>
       <c r="K42" s="92"/>
     </row>
-    <row r="43" spans="2:13" ht="34">
+    <row r="43" spans="2:13" ht="31.2">
       <c r="B43" s="85" t="s">
         <v>80</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="K43" s="92"/>
       <c r="M43" s="57"/>
     </row>
-    <row r="44" spans="2:13" ht="17">
+    <row r="44" spans="2:13">
       <c r="B44" s="85" t="s">
         <v>82</v>
       </c>
@@ -7258,8 +7258,12 @@
       <c r="D44" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="88"/>
+      <c r="E44" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>17</v>
+      </c>
       <c r="G44" s="89"/>
       <c r="H44" s="93" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -7270,7 +7274,7 @@
       <c r="K44" s="92"/>
       <c r="M44" s="57"/>
     </row>
-    <row r="45" spans="2:13" ht="34">
+    <row r="45" spans="2:13" ht="31.2">
       <c r="B45" s="85" t="s">
         <v>84</v>
       </c>
@@ -7295,7 +7299,7 @@
       <c r="J45" s="91"/>
       <c r="K45" s="92"/>
     </row>
-    <row r="46" spans="2:13" ht="34">
+    <row r="46" spans="2:13" ht="31.2">
       <c r="B46" s="85" t="s">
         <v>86</v>
       </c>
@@ -7323,7 +7327,7 @@
       <c r="J46" s="91"/>
       <c r="K46" s="92"/>
     </row>
-    <row r="47" spans="2:13" ht="32">
+    <row r="47" spans="2:13" ht="28.8">
       <c r="B47" s="85" t="s">
         <v>88</v>
       </c>
@@ -7348,7 +7352,7 @@
       <c r="J47" s="100"/>
       <c r="K47" s="100"/>
     </row>
-    <row r="48" spans="2:13" ht="34">
+    <row r="48" spans="2:13" ht="31.2">
       <c r="B48" s="85" t="s">
         <v>90</v>
       </c>
@@ -7373,7 +7377,7 @@
       <c r="J48" s="91"/>
       <c r="K48" s="92"/>
     </row>
-    <row r="49" spans="2:11" ht="51">
+    <row r="49" spans="2:11" ht="46.8">
       <c r="B49" s="85" t="s">
         <v>92</v>
       </c>
@@ -7398,7 +7402,7 @@
       <c r="J49" s="91"/>
       <c r="K49" s="92"/>
     </row>
-    <row r="50" spans="2:11" ht="51">
+    <row r="50" spans="2:11" ht="46.8">
       <c r="B50" s="85" t="s">
         <v>94</v>
       </c>
@@ -7423,7 +7427,7 @@
       <c r="J50" s="91"/>
       <c r="K50" s="92"/>
     </row>
-    <row r="51" spans="2:11" ht="34">
+    <row r="51" spans="2:11" ht="31.2">
       <c r="B51" s="85" t="s">
         <v>96</v>
       </c>
@@ -7486,7 +7490,7 @@
       <c r="J53" s="97"/>
       <c r="K53" s="96"/>
     </row>
-    <row r="54" spans="2:11" ht="34">
+    <row r="54" spans="2:11" ht="31.2">
       <c r="B54" s="85" t="s">
         <v>99</v>
       </c>
@@ -7511,7 +7515,7 @@
       <c r="J54" s="91"/>
       <c r="K54" s="92"/>
     </row>
-    <row r="55" spans="2:11" ht="34">
+    <row r="55" spans="2:11" ht="31.2">
       <c r="B55" s="85" t="s">
         <v>101</v>
       </c>
@@ -7536,7 +7540,7 @@
       <c r="J55" s="91"/>
       <c r="K55" s="92"/>
     </row>
-    <row r="56" spans="2:11" ht="34">
+    <row r="56" spans="2:11" ht="31.2">
       <c r="B56" s="85" t="s">
         <v>103</v>
       </c>
@@ -7589,7 +7593,7 @@
       <c r="J57" s="91"/>
       <c r="K57" s="92"/>
     </row>
-    <row r="58" spans="2:11" ht="51">
+    <row r="58" spans="2:11" ht="46.8">
       <c r="B58" s="85" t="s">
         <v>107</v>
       </c>
@@ -7614,7 +7618,7 @@
       <c r="J58" s="91"/>
       <c r="K58" s="92"/>
     </row>
-    <row r="59" spans="2:11" ht="34">
+    <row r="59" spans="2:11" ht="31.2">
       <c r="B59" s="85" t="s">
         <v>109</v>
       </c>
@@ -7655,7 +7659,7 @@
       <c r="J60" s="97"/>
       <c r="K60" s="96"/>
     </row>
-    <row r="61" spans="2:11" ht="17">
+    <row r="61" spans="2:11">
       <c r="B61" s="85" t="s">
         <v>112</v>
       </c>
@@ -7680,7 +7684,7 @@
       <c r="J61" s="91"/>
       <c r="K61" s="92"/>
     </row>
-    <row r="62" spans="2:11" ht="48">
+    <row r="62" spans="2:11" ht="43.2">
       <c r="B62" s="85" t="s">
         <v>114</v>
       </c>
@@ -7708,7 +7712,7 @@
       <c r="J62" s="91"/>
       <c r="K62" s="92"/>
     </row>
-    <row r="63" spans="2:11" ht="34">
+    <row r="63" spans="2:11" ht="31.2">
       <c r="B63" s="85" t="s">
         <v>116</v>
       </c>
@@ -7758,7 +7762,7 @@
       <c r="J64" s="91"/>
       <c r="K64" s="92"/>
     </row>
-    <row r="65" spans="2:12" ht="34">
+    <row r="65" spans="2:12" ht="31.2">
       <c r="B65" s="85" t="s">
         <v>120</v>
       </c>
@@ -7783,7 +7787,7 @@
       <c r="J65" s="91"/>
       <c r="K65" s="92"/>
     </row>
-    <row r="66" spans="2:12" ht="34">
+    <row r="66" spans="2:12" ht="31.2">
       <c r="B66" s="85" t="s">
         <v>122</v>
       </c>
@@ -7808,7 +7812,7 @@
       <c r="J66" s="91"/>
       <c r="K66" s="92"/>
     </row>
-    <row r="67" spans="2:12" ht="51">
+    <row r="67" spans="2:12" ht="46.8">
       <c r="B67" s="85" t="s">
         <v>124</v>
       </c>
@@ -7833,7 +7837,7 @@
       <c r="J67" s="91"/>
       <c r="K67" s="92"/>
     </row>
-    <row r="68" spans="2:12" ht="34">
+    <row r="68" spans="2:12" ht="31.2">
       <c r="B68" s="85" t="s">
         <v>126</v>
       </c>
@@ -7880,7 +7884,7 @@
       <c r="J69" s="91"/>
       <c r="K69" s="92"/>
     </row>
-    <row r="70" spans="2:12" ht="32">
+    <row r="70" spans="2:12">
       <c r="B70" s="85" t="s">
         <v>366</v>
       </c>
@@ -7902,7 +7906,7 @@
       <c r="J70" s="91"/>
       <c r="K70" s="92"/>
     </row>
-    <row r="71" spans="2:12" ht="32">
+    <row r="71" spans="2:12" ht="28.8">
       <c r="B71" s="85" t="s">
         <v>368</v>
       </c>
@@ -7940,7 +7944,7 @@
       <c r="J72" s="97"/>
       <c r="K72" s="96"/>
     </row>
-    <row r="73" spans="2:12" ht="34">
+    <row r="73" spans="2:12" ht="31.2">
       <c r="B73" s="85" t="s">
         <v>129</v>
       </c>
@@ -7965,7 +7969,7 @@
       <c r="J73" s="91"/>
       <c r="K73" s="92"/>
     </row>
-    <row r="74" spans="2:12" ht="34">
+    <row r="74" spans="2:12" ht="31.2">
       <c r="B74" s="85" t="s">
         <v>131</v>
       </c>
@@ -7990,7 +7994,7 @@
       <c r="J74" s="91"/>
       <c r="K74" s="92"/>
     </row>
-    <row r="75" spans="2:12" ht="34">
+    <row r="75" spans="2:12">
       <c r="B75" s="85" t="s">
         <v>133</v>
       </c>
@@ -8015,7 +8019,7 @@
       <c r="J75" s="91"/>
       <c r="K75" s="92"/>
     </row>
-    <row r="76" spans="2:12" ht="34">
+    <row r="76" spans="2:12" ht="31.2">
       <c r="B76" s="85" t="s">
         <v>135</v>
       </c>
@@ -8040,7 +8044,7 @@
       <c r="J76" s="91"/>
       <c r="K76" s="92"/>
     </row>
-    <row r="77" spans="2:12" ht="34">
+    <row r="77" spans="2:12" ht="31.2">
       <c r="B77" s="85" t="s">
         <v>137</v>
       </c>
@@ -8065,7 +8069,7 @@
       <c r="J77" s="91"/>
       <c r="K77" s="92"/>
     </row>
-    <row r="78" spans="2:12" ht="34">
+    <row r="78" spans="2:12" ht="31.2">
       <c r="B78" s="85" t="s">
         <v>139</v>
       </c>
@@ -8090,7 +8094,7 @@
       <c r="J78" s="91"/>
       <c r="K78" s="92"/>
     </row>
-    <row r="79" spans="2:12" ht="34">
+    <row r="79" spans="2:12" ht="31.2">
       <c r="B79" s="85" t="s">
         <v>141</v>
       </c>
@@ -8115,7 +8119,7 @@
       <c r="J79" s="91"/>
       <c r="K79" s="92"/>
     </row>
-    <row r="80" spans="2:12" ht="17">
+    <row r="80" spans="2:12">
       <c r="B80" s="85" t="s">
         <v>143</v>
       </c>
@@ -8141,7 +8145,7 @@
       <c r="K80" s="101"/>
       <c r="L80" s="73"/>
     </row>
-    <row r="81" spans="2:11" ht="34">
+    <row r="81" spans="2:11" ht="31.2">
       <c r="B81" s="85" t="s">
         <v>145</v>
       </c>
@@ -8370,20 +8374,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="64" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" style="72" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="71" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="80.796875" style="64" customWidth="1"/>
+    <col min="5" max="6" width="8.296875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="40.796875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" style="64" customWidth="1"/>
     <col min="9" max="1025" width="11" style="71" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="72"/>
+    <col min="1026" max="16384" width="8.796875" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="159" t="s">
         <v>281</v>
       </c>
@@ -8439,7 +8443,7 @@
       <c r="G4" s="97"/>
       <c r="H4" s="96"/>
     </row>
-    <row r="5" spans="2:8" ht="17">
+    <row r="5" spans="2:8">
       <c r="B5" s="85" t="s">
         <v>149</v>
       </c>
@@ -8461,7 +8465,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="2:8" ht="34">
+    <row r="6" spans="2:8" ht="31.2">
       <c r="B6" s="85" t="s">
         <v>151</v>
       </c>
@@ -8483,7 +8487,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="2:8" ht="34">
+    <row r="7" spans="2:8" ht="31.2">
       <c r="B7" s="85" t="s">
         <v>153</v>
       </c>
@@ -8505,7 +8509,7 @@
       </c>
       <c r="H7" s="92"/>
     </row>
-    <row r="8" spans="2:8" ht="34">
+    <row r="8" spans="2:8" ht="31.2">
       <c r="B8" s="85" t="s">
         <v>155</v>
       </c>
@@ -8527,7 +8531,7 @@
       </c>
       <c r="H8" s="92"/>
     </row>
-    <row r="9" spans="2:8" ht="34">
+    <row r="9" spans="2:8" ht="31.2">
       <c r="B9" s="85" t="s">
         <v>157</v>
       </c>
@@ -8549,7 +8553,7 @@
       </c>
       <c r="H9" s="92"/>
     </row>
-    <row r="10" spans="2:8" ht="34">
+    <row r="10" spans="2:8" ht="31.2">
       <c r="B10" s="85" t="s">
         <v>159</v>
       </c>
@@ -8571,7 +8575,7 @@
       </c>
       <c r="H10" s="92"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="85" t="s">
         <v>161</v>
       </c>
@@ -8592,7 +8596,7 @@
       </c>
       <c r="H11" s="92"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="85" t="s">
         <v>164</v>
       </c>
@@ -8613,7 +8617,7 @@
       </c>
       <c r="H12" s="92"/>
     </row>
-    <row r="13" spans="2:8" ht="17">
+    <row r="13" spans="2:8">
       <c r="B13" s="85" t="s">
         <v>167</v>
       </c>
@@ -8648,7 +8652,7 @@
       <c r="G14" s="97"/>
       <c r="H14" s="96"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="85" t="s">
         <v>169</v>
       </c>
@@ -8683,7 +8687,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="85" t="s">
         <v>171</v>
       </c>
@@ -8705,7 +8709,7 @@
       </c>
       <c r="H17" s="92"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="85" t="s">
         <v>173</v>
       </c>
@@ -8726,7 +8730,7 @@
       </c>
       <c r="H18" s="92"/>
     </row>
-    <row r="19" spans="2:8" ht="18">
+    <row r="19" spans="2:8" ht="17.399999999999999">
       <c r="B19" s="95" t="s">
         <v>392</v>
       </c>
@@ -8739,7 +8743,7 @@
       <c r="G19" s="97"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="85" t="s">
         <v>390</v>
       </c>
@@ -8900,24 +8904,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="103" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="103" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="102" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="72" customWidth="1"/>
-    <col min="8" max="10" width="40.83203125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="102" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="103" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="103" customWidth="1"/>
+    <col min="4" max="4" width="80.796875" style="102" customWidth="1"/>
+    <col min="5" max="7" width="8.296875" style="72" customWidth="1"/>
+    <col min="8" max="10" width="40.796875" style="72" customWidth="1"/>
+    <col min="11" max="11" width="20.796875" style="102" customWidth="1"/>
     <col min="12" max="12" width="11" style="72" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="72" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" style="72" customWidth="1"/>
     <col min="15" max="1025" width="11" style="72" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="72"/>
+    <col min="1026" max="16384" width="8.796875" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="161" t="s">
         <v>279</v>
       </c>
@@ -8976,7 +8982,7 @@
       <c r="J4" s="83"/>
       <c r="K4" s="83"/>
     </row>
-    <row r="5" spans="2:11" ht="17">
+    <row r="5" spans="2:11">
       <c r="B5" s="85" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +9008,7 @@
       <c r="J5" s="91"/>
       <c r="K5" s="92"/>
     </row>
-    <row r="6" spans="2:11" ht="34">
+    <row r="6" spans="2:11" ht="31.2">
       <c r="B6" s="85" t="s">
         <v>18</v>
       </c>
@@ -9031,7 +9037,7 @@
       <c r="J6" s="93"/>
       <c r="K6" s="92"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="85" t="s">
         <v>20</v>
       </c>
@@ -9057,7 +9063,7 @@
       <c r="J7" s="91"/>
       <c r="K7" s="92"/>
     </row>
-    <row r="8" spans="2:11" ht="17">
+    <row r="8" spans="2:11">
       <c r="B8" s="85" t="s">
         <v>22</v>
       </c>
@@ -9083,7 +9089,7 @@
       <c r="J8" s="91"/>
       <c r="K8" s="92"/>
     </row>
-    <row r="9" spans="2:11" ht="17">
+    <row r="9" spans="2:11">
       <c r="B9" s="85" t="s">
         <v>24</v>
       </c>
@@ -9109,7 +9115,7 @@
       <c r="J9" s="91"/>
       <c r="K9" s="92"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="85" t="s">
         <v>27</v>
       </c>
@@ -9135,7 +9141,7 @@
       <c r="J10" s="91"/>
       <c r="K10" s="92"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="85" t="s">
         <v>29</v>
       </c>
@@ -9164,7 +9170,7 @@
       <c r="J11" s="93"/>
       <c r="K11" s="92"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="85" t="s">
         <v>31</v>
       </c>
@@ -9190,7 +9196,7 @@
       <c r="J12" s="91"/>
       <c r="K12" s="92"/>
     </row>
-    <row r="13" spans="2:11" ht="17">
+    <row r="13" spans="2:11">
       <c r="B13" s="85" t="s">
         <v>33</v>
       </c>
@@ -9216,7 +9222,7 @@
       <c r="J13" s="91"/>
       <c r="K13" s="92"/>
     </row>
-    <row r="14" spans="2:11" ht="17">
+    <row r="14" spans="2:11">
       <c r="B14" s="85" t="s">
         <v>35</v>
       </c>
@@ -9305,7 +9311,7 @@
       <c r="J17" s="97"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="2:12" ht="34">
+    <row r="18" spans="2:12" ht="31.2">
       <c r="B18" s="85" t="s">
         <v>38</v>
       </c>
@@ -9331,7 +9337,7 @@
       <c r="J18" s="91"/>
       <c r="K18" s="92"/>
     </row>
-    <row r="19" spans="2:12" ht="34">
+    <row r="19" spans="2:12" ht="31.2">
       <c r="B19" s="85" t="s">
         <v>40</v>
       </c>
@@ -9357,7 +9363,7 @@
       <c r="J19" s="91"/>
       <c r="K19" s="92"/>
     </row>
-    <row r="20" spans="2:12" ht="34">
+    <row r="20" spans="2:12" ht="31.2">
       <c r="B20" s="85" t="s">
         <v>42</v>
       </c>
@@ -9383,7 +9389,7 @@
       <c r="J20" s="91"/>
       <c r="K20" s="92"/>
     </row>
-    <row r="21" spans="2:12" ht="34">
+    <row r="21" spans="2:12" ht="31.2">
       <c r="B21" s="85" t="s">
         <v>44</v>
       </c>
@@ -9409,7 +9415,7 @@
       <c r="J21" s="91"/>
       <c r="K21" s="92"/>
     </row>
-    <row r="22" spans="2:12" ht="34">
+    <row r="22" spans="2:12" ht="31.2">
       <c r="B22" s="85" t="s">
         <v>46</v>
       </c>
@@ -9435,7 +9441,7 @@
       <c r="J22" s="91"/>
       <c r="K22" s="92"/>
     </row>
-    <row r="23" spans="2:12" ht="51">
+    <row r="23" spans="2:12" ht="46.8">
       <c r="B23" s="85" t="s">
         <v>48</v>
       </c>
@@ -9461,7 +9467,7 @@
       <c r="J23" s="91"/>
       <c r="K23" s="92"/>
     </row>
-    <row r="24" spans="2:12" ht="34">
+    <row r="24" spans="2:12" ht="31.2">
       <c r="B24" s="85" t="s">
         <v>50</v>
       </c>
@@ -9487,7 +9493,7 @@
       <c r="J24" s="91"/>
       <c r="K24" s="92"/>
     </row>
-    <row r="25" spans="2:12" ht="34">
+    <row r="25" spans="2:12" ht="31.2">
       <c r="B25" s="85" t="s">
         <v>52</v>
       </c>
@@ -9513,7 +9519,7 @@
       <c r="J25" s="91"/>
       <c r="K25" s="92"/>
     </row>
-    <row r="26" spans="2:12" ht="34">
+    <row r="26" spans="2:12" ht="31.2">
       <c r="B26" s="85" t="s">
         <v>54</v>
       </c>
@@ -9539,7 +9545,7 @@
       <c r="J26" s="91"/>
       <c r="K26" s="92"/>
     </row>
-    <row r="27" spans="2:12" ht="34">
+    <row r="27" spans="2:12" ht="31.2">
       <c r="B27" s="85" t="s">
         <v>56</v>
       </c>
@@ -9565,7 +9571,7 @@
       <c r="J27" s="91"/>
       <c r="K27" s="92"/>
     </row>
-    <row r="28" spans="2:12" ht="34">
+    <row r="28" spans="2:12" ht="31.2">
       <c r="B28" s="85" t="s">
         <v>58</v>
       </c>
@@ -9591,7 +9597,7 @@
       <c r="J28" s="91"/>
       <c r="K28" s="92"/>
     </row>
-    <row r="29" spans="2:12" ht="32">
+    <row r="29" spans="2:12" ht="28.8">
       <c r="B29" s="85" t="s">
         <v>60</v>
       </c>
@@ -9618,7 +9624,7 @@
       <c r="K29" s="92"/>
       <c r="L29" s="71"/>
     </row>
-    <row r="30" spans="2:12" ht="32">
+    <row r="30" spans="2:12" ht="28.8">
       <c r="B30" s="85" t="s">
         <v>317</v>
       </c>
@@ -9642,7 +9648,7 @@
       <c r="K30" s="92"/>
       <c r="L30" s="71"/>
     </row>
-    <row r="31" spans="2:12" ht="32">
+    <row r="31" spans="2:12" ht="28.8">
       <c r="B31" s="85" t="s">
         <v>319</v>
       </c>
@@ -9707,7 +9713,7 @@
       <c r="J33" s="97"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="2:13" ht="34">
+    <row r="34" spans="2:13" ht="31.2">
       <c r="B34" s="85" t="s">
         <v>63</v>
       </c>
@@ -9733,7 +9739,7 @@
       <c r="J34" s="91"/>
       <c r="K34" s="92"/>
     </row>
-    <row r="35" spans="2:13" ht="51">
+    <row r="35" spans="2:13" ht="46.8">
       <c r="B35" s="85" t="s">
         <v>65</v>
       </c>
@@ -9759,7 +9765,7 @@
       <c r="J35" s="91"/>
       <c r="K35" s="92"/>
     </row>
-    <row r="36" spans="2:13" ht="51">
+    <row r="36" spans="2:13" ht="46.8">
       <c r="B36" s="85" t="s">
         <v>67</v>
       </c>
@@ -9785,7 +9791,7 @@
       <c r="J36" s="91"/>
       <c r="K36" s="92"/>
     </row>
-    <row r="37" spans="2:13" ht="34">
+    <row r="37" spans="2:13" ht="31.2">
       <c r="B37" s="85" t="s">
         <v>69</v>
       </c>
@@ -9811,7 +9817,7 @@
       <c r="J37" s="91"/>
       <c r="K37" s="92"/>
     </row>
-    <row r="38" spans="2:13" ht="34">
+    <row r="38" spans="2:13" ht="31.2">
       <c r="B38" s="85" t="s">
         <v>71</v>
       </c>
@@ -9837,7 +9843,7 @@
       <c r="J38" s="91"/>
       <c r="K38" s="92"/>
     </row>
-    <row r="39" spans="2:13" ht="34">
+    <row r="39" spans="2:13" ht="31.2">
       <c r="B39" s="85" t="s">
         <v>73</v>
       </c>
@@ -9880,7 +9886,7 @@
       <c r="J40" s="97"/>
       <c r="K40" s="96"/>
     </row>
-    <row r="41" spans="2:13" ht="34">
+    <row r="41" spans="2:13" ht="31.2">
       <c r="B41" s="85" t="s">
         <v>76</v>
       </c>
@@ -9909,7 +9915,7 @@
       <c r="J41" s="93"/>
       <c r="K41" s="92"/>
     </row>
-    <row r="42" spans="2:13" ht="34">
+    <row r="42" spans="2:13" ht="31.2">
       <c r="B42" s="85" t="s">
         <v>78</v>
       </c>
@@ -9935,7 +9941,7 @@
       <c r="J42" s="91"/>
       <c r="K42" s="92"/>
     </row>
-    <row r="43" spans="2:13" ht="34">
+    <row r="43" spans="2:13" ht="31.2">
       <c r="B43" s="85" t="s">
         <v>80</v>
       </c>
@@ -9964,7 +9970,7 @@
       <c r="J43" s="93"/>
       <c r="K43" s="92"/>
     </row>
-    <row r="44" spans="2:13" ht="17">
+    <row r="44" spans="2:13">
       <c r="B44" s="85" t="s">
         <v>82</v>
       </c>
@@ -9975,8 +9981,12 @@
         <f>'보안요구사항(Android)'!D44</f>
         <v>사용자가 로그아웃하면 원격 엔드 포인트는 기존의 세션을 종료하여야 한다.</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="88"/>
+      <c r="E44" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>17</v>
+      </c>
       <c r="G44" s="89"/>
       <c r="H44" s="93" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -9987,7 +9997,7 @@
       <c r="K44" s="92"/>
       <c r="M44" s="57"/>
     </row>
-    <row r="45" spans="2:13" ht="34">
+    <row r="45" spans="2:13" ht="31.2">
       <c r="B45" s="85" t="s">
         <v>84</v>
       </c>
@@ -10014,7 +10024,7 @@
       <c r="K45" s="92"/>
       <c r="M45" s="57"/>
     </row>
-    <row r="46" spans="2:13" ht="34">
+    <row r="46" spans="2:13" ht="31.2">
       <c r="B46" s="85" t="s">
         <v>86</v>
       </c>
@@ -10043,7 +10053,7 @@
       <c r="J46" s="93"/>
       <c r="K46" s="92"/>
     </row>
-    <row r="47" spans="2:13" ht="32">
+    <row r="47" spans="2:13" ht="28.8">
       <c r="B47" s="85" t="s">
         <v>88</v>
       </c>
@@ -10069,7 +10079,7 @@
       <c r="J47" s="100"/>
       <c r="K47" s="100"/>
     </row>
-    <row r="48" spans="2:13" ht="34">
+    <row r="48" spans="2:13" ht="31.2">
       <c r="B48" s="85" t="s">
         <v>90</v>
       </c>
@@ -10095,7 +10105,7 @@
       <c r="J48" s="93"/>
       <c r="K48" s="92"/>
     </row>
-    <row r="49" spans="2:11" ht="51">
+    <row r="49" spans="2:11" ht="46.8">
       <c r="B49" s="85" t="s">
         <v>92</v>
       </c>
@@ -10121,7 +10131,7 @@
       <c r="J49" s="91"/>
       <c r="K49" s="92"/>
     </row>
-    <row r="50" spans="2:11" ht="51">
+    <row r="50" spans="2:11" ht="46.8">
       <c r="B50" s="85" t="s">
         <v>94</v>
       </c>
@@ -10147,7 +10157,7 @@
       <c r="J50" s="91"/>
       <c r="K50" s="92"/>
     </row>
-    <row r="51" spans="2:11" ht="34">
+    <row r="51" spans="2:11" ht="31.2">
       <c r="B51" s="85" t="s">
         <v>96</v>
       </c>
@@ -10213,7 +10223,7 @@
       <c r="J53" s="97"/>
       <c r="K53" s="96"/>
     </row>
-    <row r="54" spans="2:11" ht="34">
+    <row r="54" spans="2:11" ht="31.2">
       <c r="B54" s="85" t="s">
         <v>99</v>
       </c>
@@ -10239,7 +10249,7 @@
       <c r="J54" s="93"/>
       <c r="K54" s="90"/>
     </row>
-    <row r="55" spans="2:11" ht="34">
+    <row r="55" spans="2:11" ht="31.2">
       <c r="B55" s="85" t="s">
         <v>101</v>
       </c>
@@ -10268,7 +10278,7 @@
       <c r="J55" s="93"/>
       <c r="K55" s="90"/>
     </row>
-    <row r="56" spans="2:11" ht="51">
+    <row r="56" spans="2:11" ht="46.8">
       <c r="B56" s="85" t="s">
         <v>103</v>
       </c>
@@ -10294,7 +10304,7 @@
       <c r="J56" s="91"/>
       <c r="K56" s="90"/>
     </row>
-    <row r="57" spans="2:11" ht="51">
+    <row r="57" spans="2:11" ht="46.8">
       <c r="B57" s="85" t="s">
         <v>105</v>
       </c>
@@ -10320,7 +10330,7 @@
       <c r="J57" s="91"/>
       <c r="K57" s="92"/>
     </row>
-    <row r="58" spans="2:11" ht="51">
+    <row r="58" spans="2:11" ht="46.8">
       <c r="B58" s="85" t="s">
         <v>107</v>
       </c>
@@ -10346,7 +10356,7 @@
       <c r="J58" s="91"/>
       <c r="K58" s="92"/>
     </row>
-    <row r="59" spans="2:11" ht="34">
+    <row r="59" spans="2:11" ht="31.2">
       <c r="B59" s="85" t="s">
         <v>109</v>
       </c>
@@ -10389,7 +10399,7 @@
       <c r="J60" s="97"/>
       <c r="K60" s="96"/>
     </row>
-    <row r="61" spans="2:11" ht="17">
+    <row r="61" spans="2:11">
       <c r="B61" s="85" t="s">
         <v>112</v>
       </c>
@@ -10415,7 +10425,7 @@
       <c r="J61" s="91"/>
       <c r="K61" s="92"/>
     </row>
-    <row r="62" spans="2:11" ht="48">
+    <row r="62" spans="2:11" ht="43.2">
       <c r="B62" s="85" t="s">
         <v>114</v>
       </c>
@@ -10441,7 +10451,7 @@
       <c r="J62" s="91"/>
       <c r="K62" s="92"/>
     </row>
-    <row r="63" spans="2:11" ht="34">
+    <row r="63" spans="2:11" ht="31.2">
       <c r="B63" s="85" t="s">
         <v>116</v>
       </c>
@@ -10467,7 +10477,7 @@
       <c r="J63" s="91"/>
       <c r="K63" s="92"/>
     </row>
-    <row r="64" spans="2:11" ht="34">
+    <row r="64" spans="2:11" ht="31.2">
       <c r="B64" s="85" t="s">
         <v>118</v>
       </c>
@@ -10493,7 +10503,7 @@
       <c r="J64" s="91"/>
       <c r="K64" s="92"/>
     </row>
-    <row r="65" spans="2:11" ht="17">
+    <row r="65" spans="2:11">
       <c r="B65" s="85" t="s">
         <v>120</v>
       </c>
@@ -10519,7 +10529,7 @@
       <c r="J65" s="91"/>
       <c r="K65" s="92"/>
     </row>
-    <row r="66" spans="2:11" ht="34">
+    <row r="66" spans="2:11" ht="31.2">
       <c r="B66" s="85" t="s">
         <v>122</v>
       </c>
@@ -10545,7 +10555,7 @@
       <c r="J66" s="91"/>
       <c r="K66" s="92"/>
     </row>
-    <row r="67" spans="2:11" ht="51">
+    <row r="67" spans="2:11" ht="46.8">
       <c r="B67" s="85" t="s">
         <v>124</v>
       </c>
@@ -10571,7 +10581,7 @@
       <c r="J67" s="91"/>
       <c r="K67" s="92"/>
     </row>
-    <row r="68" spans="2:11" ht="34">
+    <row r="68" spans="2:11" ht="31.2">
       <c r="B68" s="85" t="s">
         <v>126</v>
       </c>
@@ -10620,7 +10630,7 @@
       <c r="J69" s="91"/>
       <c r="K69" s="92"/>
     </row>
-    <row r="70" spans="2:11" ht="32">
+    <row r="70" spans="2:11">
       <c r="B70" s="85" t="s">
         <v>366</v>
       </c>
@@ -10643,7 +10653,7 @@
       <c r="J70" s="91"/>
       <c r="K70" s="92"/>
     </row>
-    <row r="71" spans="2:11" ht="32">
+    <row r="71" spans="2:11" ht="28.8">
       <c r="B71" s="85" t="s">
         <v>368</v>
       </c>
@@ -10683,7 +10693,7 @@
       <c r="J72" s="97"/>
       <c r="K72" s="96"/>
     </row>
-    <row r="73" spans="2:11" ht="34">
+    <row r="73" spans="2:11" ht="31.2">
       <c r="B73" s="85" t="s">
         <v>129</v>
       </c>
@@ -10709,7 +10719,7 @@
       <c r="J73" s="91"/>
       <c r="K73" s="92"/>
     </row>
-    <row r="74" spans="2:11" ht="34">
+    <row r="74" spans="2:11" ht="31.2">
       <c r="B74" s="85" t="s">
         <v>131</v>
       </c>
@@ -10735,7 +10745,7 @@
       <c r="J74" s="91"/>
       <c r="K74" s="92"/>
     </row>
-    <row r="75" spans="2:11" ht="17">
+    <row r="75" spans="2:11">
       <c r="B75" s="85" t="s">
         <v>133</v>
       </c>
@@ -10761,7 +10771,7 @@
       <c r="J75" s="91"/>
       <c r="K75" s="92"/>
     </row>
-    <row r="76" spans="2:11" ht="34">
+    <row r="76" spans="2:11" ht="31.2">
       <c r="B76" s="85" t="s">
         <v>135</v>
       </c>
@@ -10787,7 +10797,7 @@
       <c r="J76" s="91"/>
       <c r="K76" s="92"/>
     </row>
-    <row r="77" spans="2:11" ht="34">
+    <row r="77" spans="2:11" ht="31.2">
       <c r="B77" s="85" t="s">
         <v>137</v>
       </c>
@@ -10813,7 +10823,7 @@
       <c r="J77" s="91"/>
       <c r="K77" s="92"/>
     </row>
-    <row r="78" spans="2:11" ht="35" customHeight="1">
+    <row r="78" spans="2:11" ht="34.950000000000003" customHeight="1">
       <c r="B78" s="85" t="s">
         <v>139</v>
       </c>
@@ -10839,7 +10849,7 @@
       <c r="J78" s="91"/>
       <c r="K78" s="92"/>
     </row>
-    <row r="79" spans="2:11" ht="38" customHeight="1">
+    <row r="79" spans="2:11" ht="37.950000000000003" customHeight="1">
       <c r="B79" s="85" t="s">
         <v>141</v>
       </c>
@@ -10865,7 +10875,7 @@
       <c r="J79" s="91"/>
       <c r="K79" s="92"/>
     </row>
-    <row r="80" spans="2:11" ht="17">
+    <row r="80" spans="2:11">
       <c r="B80" s="85" t="s">
         <v>143</v>
       </c>
@@ -10891,7 +10901,7 @@
       <c r="J80" s="91"/>
       <c r="K80" s="92"/>
     </row>
-    <row r="81" spans="2:11" ht="34">
+    <row r="81" spans="2:11" ht="31.2">
       <c r="B81" s="85" t="s">
         <v>145</v>
       </c>
@@ -11143,20 +11153,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="124" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="124" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="68" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="57.33203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="124" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="124" customWidth="1"/>
+    <col min="4" max="4" width="80.796875" style="68" customWidth="1"/>
+    <col min="5" max="6" width="8.296875" style="69" customWidth="1"/>
+    <col min="7" max="7" width="57.296875" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" style="68" customWidth="1"/>
     <col min="9" max="1025" width="11" style="69" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="69"/>
+    <col min="1026" max="16384" width="8.796875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="162" t="s">
         <v>292</v>
       </c>
@@ -11208,7 +11218,7 @@
       <c r="G4" s="97"/>
       <c r="H4" s="96"/>
     </row>
-    <row r="5" spans="2:8" ht="17">
+    <row r="5" spans="2:8">
       <c r="B5" s="85" t="s">
         <v>149</v>
       </c>
@@ -11231,7 +11241,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="2:8" ht="32">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="85" t="s">
         <v>151</v>
       </c>
@@ -11254,7 +11264,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="2:8" ht="34">
+    <row r="7" spans="2:8" ht="31.2">
       <c r="B7" s="85" t="s">
         <v>153</v>
       </c>
@@ -11341,7 +11351,7 @@
       <c r="G10" s="137"/>
       <c r="H10" s="92"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="85" t="s">
         <v>161</v>
       </c>
@@ -11363,7 +11373,7 @@
       </c>
       <c r="H11" s="92"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="85" t="s">
         <v>164</v>
       </c>
@@ -11458,7 +11468,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="85" t="s">
         <v>171</v>
       </c>
@@ -11481,7 +11491,7 @@
       </c>
       <c r="H17" s="92"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="85" t="s">
         <v>173</v>
       </c>
@@ -11503,7 +11513,7 @@
       </c>
       <c r="H18" s="92"/>
     </row>
-    <row r="19" spans="2:8" ht="19">
+    <row r="19" spans="2:8">
       <c r="B19" s="95" t="s">
         <v>392</v>
       </c>
@@ -11517,7 +11527,7 @@
       <c r="G19" s="97"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="85" t="s">
         <v>390</v>
       </c>
@@ -11719,13 +11729,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.296875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="119.6640625" customWidth="1"/>
+    <col min="5" max="5" width="119.69921875" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11935,7 +11945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409" customHeight="1">
+    <row r="15" spans="1:5" ht="409.05" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>203</v>
       </c>
@@ -11969,7 +11979,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="85">
+    <row r="17" spans="1:5" ht="78">
       <c r="A17" s="19" t="s">
         <v>203</v>
       </c>
@@ -11986,7 +11996,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51">
+    <row r="18" spans="1:5" ht="46.8">
       <c r="A18" s="19" t="s">
         <v>203</v>
       </c>
@@ -12003,7 +12013,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row r="19" spans="1:5" ht="46.8">
       <c r="A19" s="19" t="s">
         <v>203</v>
       </c>
@@ -12020,7 +12030,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="119">
+    <row r="20" spans="1:5" ht="109.2">
       <c r="A20" s="19" t="s">
         <v>198</v>
       </c>
@@ -12037,7 +12047,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17">
+    <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
         <v>198</v>
       </c>
@@ -12054,7 +12064,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51">
+    <row r="22" spans="1:5" ht="46.8">
       <c r="A22" s="19" t="s">
         <v>198</v>
       </c>
@@ -12071,7 +12081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17">
+    <row r="23" spans="1:5">
       <c r="A23" s="19" t="s">
         <v>198</v>
       </c>
@@ -12088,7 +12098,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17">
+    <row r="24" spans="1:5">
       <c r="A24" s="19" t="s">
         <v>198</v>
       </c>
@@ -12105,7 +12115,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51">
+    <row r="25" spans="1:5" ht="46.8">
       <c r="A25" s="19" t="s">
         <v>198</v>
       </c>
@@ -12122,7 +12132,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51">
+    <row r="26" spans="1:5" ht="46.8">
       <c r="A26" s="19" t="s">
         <v>225</v>
       </c>
@@ -12139,7 +12149,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="255">
+    <row r="27" spans="1:5" ht="234">
       <c r="A27" s="135" t="s">
         <v>407</v>
       </c>
@@ -12174,13 +12184,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.296875" customWidth="1"/>
     <col min="2" max="2" width="11" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.69921875" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12210,7 +12220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34">
+    <row r="3" spans="1:5" ht="31.2">
       <c r="A3" s="40" t="s">
         <v>299</v>
       </c>
@@ -12227,7 +12237,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34">
+    <row r="4" spans="1:5" ht="31.2">
       <c r="A4" s="40" t="s">
         <v>409</v>
       </c>
